--- a/Assets/Resources/Data/TotalData.xlsx
+++ b/Assets/Resources/Data/TotalData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,19 @@
     <sheet name="Accessory" sheetId="6" r:id="rId8"/>
     <sheet name="Boss" sheetId="9" r:id="rId9"/>
     <sheet name="BossWeapon" sheetId="10" r:id="rId10"/>
+    <sheet name="SmithEnhance" sheetId="11" r:id="rId11"/>
+    <sheet name="RepairEnhance" sheetId="12" r:id="rId12"/>
+    <sheet name="MaxWaterEnhance" sheetId="13" r:id="rId13"/>
+    <sheet name="WaterPlusEnhance" sheetId="14" r:id="rId14"/>
+    <sheet name="AccuractRate" sheetId="15" r:id="rId15"/>
+    <sheet name="CriticalEnhance" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +465,29 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+  </si>
+  <si>
+    <t>비용
+(골드)</t>
+  </si>
+  <si>
+    <t>해당단계
+결과값</t>
+  </si>
+  <si>
+    <t>해당단계
+결과값(%)</t>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비용 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,20 +636,84 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1228,6 +1321,2074 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="9">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="9">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="9">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="9">
+        <v>27</v>
+      </c>
+      <c r="B29" s="9">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="9">
+        <v>28</v>
+      </c>
+      <c r="B30" s="9">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="9">
+        <v>29</v>
+      </c>
+      <c r="B31" s="9">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="9">
+        <v>30</v>
+      </c>
+      <c r="B32" s="9">
+        <v>61000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3500</v>
+      </c>
+      <c r="C7" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4500</v>
+      </c>
+      <c r="C9" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5500</v>
+      </c>
+      <c r="C11" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>6500</v>
+      </c>
+      <c r="C13" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7000</v>
+      </c>
+      <c r="C14" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7500</v>
+      </c>
+      <c r="C15" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C16" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8500</v>
+      </c>
+      <c r="C17" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>9000</v>
+      </c>
+      <c r="C18" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>9500</v>
+      </c>
+      <c r="C19" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>10500</v>
+      </c>
+      <c r="C21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>11000</v>
+      </c>
+      <c r="C22" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>11500</v>
+      </c>
+      <c r="C23" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>12500</v>
+      </c>
+      <c r="C25" s="10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>13000</v>
+      </c>
+      <c r="C26" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>13500</v>
+      </c>
+      <c r="C27" s="10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>14000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>14500</v>
+      </c>
+      <c r="C29" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>15000</v>
+      </c>
+      <c r="C30" s="10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>15500</v>
+      </c>
+      <c r="C31" s="10">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>3500</v>
+      </c>
+      <c r="C7" s="14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>4500</v>
+      </c>
+      <c r="C9" s="14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C10" s="14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5500</v>
+      </c>
+      <c r="C11" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>6500</v>
+      </c>
+      <c r="C13" s="14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>7000</v>
+      </c>
+      <c r="C14" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>7500</v>
+      </c>
+      <c r="C15" s="14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>8000</v>
+      </c>
+      <c r="C16" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>8500</v>
+      </c>
+      <c r="C17" s="14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>9000</v>
+      </c>
+      <c r="C18" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>9500</v>
+      </c>
+      <c r="C19" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>10500</v>
+      </c>
+      <c r="C21" s="14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>11000</v>
+      </c>
+      <c r="C22" s="14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>11500</v>
+      </c>
+      <c r="C23" s="14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>12500</v>
+      </c>
+      <c r="C25" s="14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>13000</v>
+      </c>
+      <c r="C26" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>13500</v>
+      </c>
+      <c r="C27" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>14000</v>
+      </c>
+      <c r="C28" s="14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>14500</v>
+      </c>
+      <c r="C29" s="14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>15000</v>
+      </c>
+      <c r="C30" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>15500</v>
+      </c>
+      <c r="C31" s="14">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>8000</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>9000</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>10000</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>11000</v>
+      </c>
+      <c r="C11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>12000</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>13000</v>
+      </c>
+      <c r="C13" s="18">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18">
+        <v>14000</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18">
+        <v>15000</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18">
+        <v>16000</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18">
+        <v>17000</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18">
+        <v>18000</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18">
+        <v>19000</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18">
+        <v>20000</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18">
+        <v>21000</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18">
+        <v>22000</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18">
+        <v>23000</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="18">
+        <v>24000</v>
+      </c>
+      <c r="C24" s="18">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="18">
+        <v>25000</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="18">
+        <v>26000</v>
+      </c>
+      <c r="C26" s="18">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18">
+        <v>27000</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18">
+        <v>28000</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18">
+        <v>29000</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18">
+        <v>30000</v>
+      </c>
+      <c r="C30" s="18">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18">
+        <v>31000</v>
+      </c>
+      <c r="C31" s="18">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="50.25" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="22">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="22">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="22">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2500</v>
+      </c>
+      <c r="C5" s="22">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="22">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22">
+        <v>3500</v>
+      </c>
+      <c r="C7" s="22">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="22">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22">
+        <v>4500</v>
+      </c>
+      <c r="C9" s="22">
+        <v>101.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C10" s="22">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <v>5500</v>
+      </c>
+      <c r="C11" s="22">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="22">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22">
+        <v>6500</v>
+      </c>
+      <c r="C13" s="22">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22">
+        <v>7000</v>
+      </c>
+      <c r="C14" s="22">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22">
+        <v>7500</v>
+      </c>
+      <c r="C15" s="22">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22">
+        <v>8000</v>
+      </c>
+      <c r="C16" s="22">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22">
+        <v>8500</v>
+      </c>
+      <c r="C17" s="22">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22">
+        <v>9000</v>
+      </c>
+      <c r="C18" s="22">
+        <v>103.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="22">
+        <v>9500</v>
+      </c>
+      <c r="C19" s="22">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C20" s="22">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="22">
+        <v>10500</v>
+      </c>
+      <c r="C21" s="22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22">
+        <v>11000</v>
+      </c>
+      <c r="C22" s="22">
+        <v>104.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="22">
+        <v>11500</v>
+      </c>
+      <c r="C23" s="22">
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="22">
+        <v>12000</v>
+      </c>
+      <c r="C24" s="22">
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22">
+        <v>12500</v>
+      </c>
+      <c r="C25" s="22">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22">
+        <v>13000</v>
+      </c>
+      <c r="C26" s="22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22">
+        <v>13500</v>
+      </c>
+      <c r="C27" s="22">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="22">
+        <v>14000</v>
+      </c>
+      <c r="C28" s="22">
+        <v>105.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="22">
+        <v>14500</v>
+      </c>
+      <c r="C29" s="22">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22">
+        <v>15000</v>
+      </c>
+      <c r="C30" s="22">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22">
+        <v>15500</v>
+      </c>
+      <c r="C31" s="22">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="50.25" thickBot="1">
+      <c r="A1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27">
+        <v>2000</v>
+      </c>
+      <c r="C2" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27">
+        <v>3500</v>
+      </c>
+      <c r="C3" s="27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
+        <v>5000</v>
+      </c>
+      <c r="C4" s="27">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27">
+        <v>6500</v>
+      </c>
+      <c r="C5" s="27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27">
+        <v>8000</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27">
+        <v>9500</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <v>11000</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>12500</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <v>14000</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <v>15500</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27">
+        <v>17000</v>
+      </c>
+      <c r="C12" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>18500</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>20000</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>21500</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>23000</v>
+      </c>
+      <c r="C16" s="27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>24500</v>
+      </c>
+      <c r="C17" s="27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="27">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>26000</v>
+      </c>
+      <c r="C18" s="27">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>27500</v>
+      </c>
+      <c r="C19" s="27">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="27">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27">
+        <v>29000</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>30500</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>32000</v>
+      </c>
+      <c r="C22" s="27">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="27">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27">
+        <v>33500</v>
+      </c>
+      <c r="C23" s="27">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27">
+        <v>35000</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27">
+        <v>36500</v>
+      </c>
+      <c r="C25" s="27">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27">
+        <v>38000</v>
+      </c>
+      <c r="C26" s="27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>39500</v>
+      </c>
+      <c r="C27" s="27">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27">
+        <v>41000</v>
+      </c>
+      <c r="C28" s="27">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27">
+        <v>42500</v>
+      </c>
+      <c r="C29" s="27">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="27">
+        <v>44000</v>
+      </c>
+      <c r="C30" s="27">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="27">
+        <v>30</v>
+      </c>
+      <c r="B31" s="27">
+        <v>45500</v>
+      </c>
+      <c r="C31" s="27">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
@@ -8689,7 +10850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/Data/TotalData.xlsx
+++ b/Assets/Resources/Data/TotalData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suro\Downloads\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="9" activeTab="10"/>
   </bookViews>
@@ -494,8 +499,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +719,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -760,7 +773,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,9 +805,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -826,6 +840,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1001,14 +1016,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -1021,7 +1036,7 @@
     <col min="16" max="19" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1063,7 +1078,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1105,7 +1120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1126,16 +1141,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1295,7 +1310,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1322,19 +1337,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>121</v>
       </c>
@@ -1342,7 +1357,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1351,7 +1366,7 @@
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1359,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1383,7 +1398,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1463,7 +1478,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1471,7 +1486,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1487,7 +1502,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1503,7 +1518,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1511,7 +1526,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1527,7 +1542,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1567,7 +1582,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1598,16 +1613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>117</v>
       </c>
@@ -1618,7 +1633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1626,326 +1641,326 @@
         <v>1000</v>
       </c>
       <c r="C2" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10">
         <v>1500</v>
       </c>
-      <c r="C3" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10">
         <v>2000</v>
       </c>
-      <c r="C4" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10">
         <v>2500</v>
       </c>
-      <c r="C5" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10">
         <v>3000</v>
       </c>
-      <c r="C6" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10">
         <v>3500</v>
       </c>
-      <c r="C7" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="10">
         <v>4000</v>
       </c>
-      <c r="C8" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>4500</v>
       </c>
-      <c r="C9" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10">
         <v>5000</v>
       </c>
-      <c r="C10" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10">
         <v>5500</v>
       </c>
-      <c r="C11" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10">
         <v>6000</v>
       </c>
-      <c r="C12" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10">
         <v>6500</v>
       </c>
-      <c r="C13" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10">
         <v>7000</v>
       </c>
-      <c r="C14" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10">
         <v>7500</v>
       </c>
-      <c r="C15" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>8000</v>
       </c>
-      <c r="C16" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10">
         <v>8500</v>
       </c>
-      <c r="C17" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="10">
         <v>9000</v>
       </c>
-      <c r="C18" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
       <c r="B19" s="10">
         <v>9500</v>
       </c>
-      <c r="C19" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="10">
         <v>10000</v>
       </c>
-      <c r="C20" s="10">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10">
         <v>10500</v>
       </c>
-      <c r="C21" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" s="10">
         <v>11000</v>
       </c>
-      <c r="C22" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10">
         <v>11500</v>
       </c>
-      <c r="C23" s="10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="10">
         <v>12000</v>
       </c>
-      <c r="C24" s="10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="10">
         <v>12500</v>
       </c>
-      <c r="C25" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="10">
         <v>13000</v>
       </c>
-      <c r="C26" s="10">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="10">
         <v>13500</v>
       </c>
-      <c r="C27" s="10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="10">
         <v>14000</v>
       </c>
-      <c r="C28" s="10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="10">
         <v>14500</v>
       </c>
-      <c r="C29" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="10">
         <v>15000</v>
       </c>
-      <c r="C30" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
       <c r="B31" s="10">
         <v>15500</v>
       </c>
-      <c r="C31" s="10">
-        <v>40</v>
+      <c r="C31" s="32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1955,16 +1970,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>117</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1983,326 +1998,326 @@
         <v>1000</v>
       </c>
       <c r="C2" s="14">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14">
         <v>1500</v>
       </c>
-      <c r="C3" s="14">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="14">
         <v>2000</v>
       </c>
-      <c r="C4" s="14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="14">
         <v>2500</v>
       </c>
-      <c r="C5" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="14">
         <v>3000</v>
       </c>
-      <c r="C6" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="14">
         <v>3500</v>
       </c>
-      <c r="C7" s="14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="14">
         <v>4000</v>
       </c>
-      <c r="C8" s="14">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="14">
         <v>4500</v>
       </c>
-      <c r="C9" s="14">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="14">
         <v>5000</v>
       </c>
-      <c r="C10" s="14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14">
         <v>5500</v>
       </c>
-      <c r="C11" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14">
         <v>6000</v>
       </c>
-      <c r="C12" s="14">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14">
         <v>6500</v>
       </c>
-      <c r="C13" s="14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14">
         <v>7000</v>
       </c>
-      <c r="C14" s="14">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="14">
         <v>7500</v>
       </c>
-      <c r="C15" s="14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="14">
         <v>8000</v>
       </c>
-      <c r="C16" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="14">
         <v>8500</v>
       </c>
-      <c r="C17" s="14">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
       <c r="B18" s="14">
         <v>9000</v>
       </c>
-      <c r="C18" s="14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
       <c r="B19" s="14">
         <v>9500</v>
       </c>
-      <c r="C19" s="14">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
       <c r="B20" s="14">
         <v>10000</v>
       </c>
-      <c r="C20" s="14">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
       <c r="B21" s="14">
         <v>10500</v>
       </c>
-      <c r="C21" s="14">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
       <c r="B22" s="14">
         <v>11000</v>
       </c>
-      <c r="C22" s="14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="14">
         <v>11500</v>
       </c>
-      <c r="C23" s="14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
       <c r="B24" s="14">
         <v>12000</v>
       </c>
-      <c r="C24" s="14">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
       <c r="B25" s="14">
         <v>12500</v>
       </c>
-      <c r="C25" s="14">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
       <c r="B26" s="14">
         <v>13000</v>
       </c>
-      <c r="C26" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
       <c r="B27" s="14">
         <v>13500</v>
       </c>
-      <c r="C27" s="14">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
       <c r="B28" s="14">
         <v>14000</v>
       </c>
-      <c r="C28" s="14">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
       <c r="B29" s="14">
         <v>14500</v>
       </c>
-      <c r="C29" s="14">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
       <c r="B30" s="14">
         <v>15000</v>
       </c>
-      <c r="C30" s="14">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
       <c r="B31" s="14">
         <v>15500</v>
       </c>
-      <c r="C31" s="14">
-        <v>90</v>
+      <c r="C31" s="32">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2312,16 +2327,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>117</v>
       </c>
@@ -2332,7 +2347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2340,326 +2355,326 @@
         <v>2000</v>
       </c>
       <c r="C2" s="18">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18">
         <v>3000</v>
       </c>
-      <c r="C3" s="18">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="18">
         <v>4000</v>
       </c>
-      <c r="C4" s="18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
       <c r="B5" s="18">
         <v>5000</v>
       </c>
-      <c r="C5" s="18">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
       <c r="B6" s="18">
         <v>6000</v>
       </c>
-      <c r="C6" s="18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
       <c r="B7" s="18">
         <v>7000</v>
       </c>
-      <c r="C7" s="18">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
       <c r="B8" s="18">
         <v>8000</v>
       </c>
-      <c r="C8" s="18">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
       <c r="B9" s="18">
         <v>9000</v>
       </c>
-      <c r="C9" s="18">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
       <c r="B10" s="18">
         <v>10000</v>
       </c>
-      <c r="C10" s="18">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
       <c r="B11" s="18">
         <v>11000</v>
       </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
       <c r="B12" s="18">
         <v>12000</v>
       </c>
-      <c r="C12" s="18">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
       <c r="B13" s="18">
         <v>13000</v>
       </c>
-      <c r="C13" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
       <c r="B14" s="18">
         <v>14000</v>
       </c>
-      <c r="C14" s="18">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
       <c r="B15" s="18">
         <v>15000</v>
       </c>
-      <c r="C15" s="18">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
       <c r="B16" s="18">
         <v>16000</v>
       </c>
-      <c r="C16" s="18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
       <c r="B17" s="18">
         <v>17000</v>
       </c>
-      <c r="C17" s="18">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
       <c r="B18" s="18">
         <v>18000</v>
       </c>
-      <c r="C18" s="18">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
       <c r="B19" s="18">
         <v>19000</v>
       </c>
-      <c r="C19" s="18">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
       <c r="B20" s="18">
         <v>20000</v>
       </c>
-      <c r="C20" s="18">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
       <c r="B21" s="18">
         <v>21000</v>
       </c>
-      <c r="C21" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
       <c r="B22" s="18">
         <v>22000</v>
       </c>
-      <c r="C22" s="18">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
       <c r="B23" s="18">
         <v>23000</v>
       </c>
-      <c r="C23" s="18">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
       <c r="B24" s="18">
         <v>24000</v>
       </c>
-      <c r="C24" s="18">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
       <c r="B25" s="18">
         <v>25000</v>
       </c>
-      <c r="C25" s="18">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
       <c r="B26" s="18">
         <v>26000</v>
       </c>
-      <c r="C26" s="18">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
       <c r="B27" s="18">
         <v>27000</v>
       </c>
-      <c r="C27" s="18">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
       <c r="B28" s="18">
         <v>28000</v>
       </c>
-      <c r="C28" s="18">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
       <c r="B29" s="18">
         <v>29000</v>
       </c>
-      <c r="C29" s="18">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
       <c r="B30" s="18">
         <v>30000</v>
       </c>
-      <c r="C30" s="18">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
       <c r="B31" s="18">
         <v>31000</v>
       </c>
-      <c r="C31" s="18">
-        <v>4</v>
+      <c r="C31" s="32">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2669,16 +2684,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.25" thickBot="1">
+    <row r="1" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
@@ -2689,7 +2704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2697,345 +2712,346 @@
         <v>1000</v>
       </c>
       <c r="C2" s="22">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="22">
         <v>1500</v>
       </c>
-      <c r="C3" s="22">
-        <v>100.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22">
         <v>2000</v>
       </c>
-      <c r="C4" s="22">
-        <v>100.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="22">
         <v>2500</v>
       </c>
-      <c r="C5" s="22">
-        <v>100.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="22">
         <v>3000</v>
       </c>
-      <c r="C6" s="22">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="22">
         <v>3500</v>
       </c>
-      <c r="C7" s="22">
-        <v>101.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="22">
         <v>4000</v>
       </c>
-      <c r="C8" s="22">
-        <v>101.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="22">
         <v>4500</v>
       </c>
-      <c r="C9" s="22">
-        <v>101.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="22">
         <v>5000</v>
       </c>
-      <c r="C10" s="22">
-        <v>101.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
       <c r="B11" s="22">
         <v>5500</v>
       </c>
-      <c r="C11" s="22">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
       <c r="B12" s="22">
         <v>6000</v>
       </c>
-      <c r="C12" s="22">
-        <v>102.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
       <c r="B13" s="22">
         <v>6500</v>
       </c>
-      <c r="C13" s="22">
-        <v>102.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>13</v>
       </c>
       <c r="B14" s="22">
         <v>7000</v>
       </c>
-      <c r="C14" s="22">
-        <v>102.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="22">
         <v>7500</v>
       </c>
-      <c r="C15" s="22">
-        <v>102.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="B16" s="22">
         <v>8000</v>
       </c>
-      <c r="C16" s="22">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
       <c r="B17" s="22">
         <v>8500</v>
       </c>
-      <c r="C17" s="22">
-        <v>103.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
       <c r="B18" s="22">
         <v>9000</v>
       </c>
-      <c r="C18" s="22">
-        <v>103.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
       <c r="B19" s="22">
         <v>9500</v>
       </c>
-      <c r="C19" s="22">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>19</v>
       </c>
       <c r="B20" s="22">
         <v>10000</v>
       </c>
-      <c r="C20" s="22">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>20</v>
       </c>
       <c r="B21" s="22">
         <v>10500</v>
       </c>
-      <c r="C21" s="22">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>21</v>
       </c>
       <c r="B22" s="22">
         <v>11000</v>
       </c>
-      <c r="C22" s="22">
-        <v>104.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
       <c r="B23" s="22">
         <v>11500</v>
       </c>
-      <c r="C23" s="22">
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>23</v>
       </c>
       <c r="B24" s="22">
         <v>12000</v>
       </c>
-      <c r="C24" s="22">
-        <v>104.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>24</v>
       </c>
       <c r="B25" s="22">
         <v>12500</v>
       </c>
-      <c r="C25" s="22">
-        <v>104.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>25</v>
       </c>
       <c r="B26" s="22">
         <v>13000</v>
       </c>
-      <c r="C26" s="22">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
       <c r="B27" s="22">
         <v>13500</v>
       </c>
-      <c r="C27" s="22">
-        <v>105.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
       <c r="B28" s="22">
         <v>14000</v>
       </c>
-      <c r="C28" s="22">
-        <v>105.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
       <c r="B29" s="22">
         <v>14500</v>
       </c>
-      <c r="C29" s="22">
-        <v>105.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>29</v>
       </c>
       <c r="B30" s="22">
         <v>15000</v>
       </c>
-      <c r="C30" s="22">
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>30</v>
       </c>
       <c r="B31" s="22">
         <v>15500</v>
       </c>
-      <c r="C31" s="22">
-        <v>106</v>
+      <c r="C31" s="32">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.25" thickBot="1">
+    <row r="1" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>117</v>
       </c>
@@ -3046,7 +3062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -3056,331 +3072,327 @@
       <c r="C2" s="27">
         <v>0.1</v>
       </c>
-      <c r="D2" s="31">
-        <v>1</v>
-      </c>
+      <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="27">
         <v>3500</v>
       </c>
-      <c r="C3" s="27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="27">
         <v>5000</v>
       </c>
-      <c r="C4" s="27">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="27">
         <v>6500</v>
       </c>
-      <c r="C5" s="27">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="27">
         <v>8000</v>
       </c>
-      <c r="C6" s="27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="27">
         <v>9500</v>
       </c>
-      <c r="C7" s="27">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="C7" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="27">
         <v>11000</v>
       </c>
-      <c r="C8" s="27">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="27">
         <v>12500</v>
       </c>
-      <c r="C9" s="27">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="27">
         <v>14000</v>
       </c>
-      <c r="C10" s="27">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C10" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="27">
         <v>15500</v>
       </c>
-      <c r="C11" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>11</v>
       </c>
       <c r="B12" s="27">
         <v>17000</v>
       </c>
-      <c r="C12" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>12</v>
       </c>
       <c r="B13" s="27">
         <v>18500</v>
       </c>
-      <c r="C13" s="27">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="C13" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="27">
         <v>20000</v>
       </c>
-      <c r="C14" s="27">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="27">
         <v>21500</v>
       </c>
-      <c r="C15" s="27">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="27">
         <v>23000</v>
       </c>
-      <c r="C16" s="27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="27">
         <v>24500</v>
       </c>
-      <c r="C17" s="27">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="27">
         <v>26000</v>
       </c>
-      <c r="C18" s="27">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="27">
         <v>27500</v>
       </c>
-      <c r="C19" s="27">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>19</v>
       </c>
       <c r="B20" s="27">
         <v>29000</v>
       </c>
-      <c r="C20" s="27">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="27">
         <v>30500</v>
       </c>
-      <c r="C21" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>21</v>
       </c>
       <c r="B22" s="27">
         <v>32000</v>
       </c>
-      <c r="C22" s="27">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="27">
         <v>33500</v>
       </c>
-      <c r="C23" s="27">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>23</v>
       </c>
       <c r="B24" s="27">
         <v>35000</v>
       </c>
-      <c r="C24" s="27">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>24</v>
       </c>
       <c r="B25" s="27">
         <v>36500</v>
       </c>
-      <c r="C25" s="27">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>25</v>
       </c>
       <c r="B26" s="27">
         <v>38000</v>
       </c>
-      <c r="C26" s="27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>26</v>
       </c>
       <c r="B27" s="27">
         <v>39500</v>
       </c>
-      <c r="C27" s="27">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>27</v>
       </c>
       <c r="B28" s="27">
         <v>41000</v>
       </c>
-      <c r="C28" s="27">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>28</v>
       </c>
       <c r="B29" s="27">
         <v>42500</v>
       </c>
-      <c r="C29" s="27">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>29</v>
       </c>
       <c r="B30" s="27">
         <v>44000</v>
       </c>
-      <c r="C30" s="27">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>30</v>
       </c>
       <c r="B31" s="27">
         <v>45500</v>
       </c>
-      <c r="C31" s="27">
-        <v>3</v>
+      <c r="C31" s="32">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3390,14 +3402,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -3405,7 +3417,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3428,7 +3440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3474,7 +3486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3505,14 +3517,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -3528,7 +3540,7 @@
     <col min="15" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1">
+    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27" thickBot="1">
+    <row r="2" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3646,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27" thickBot="1">
+    <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3705,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1">
+    <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3764,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" thickBot="1">
+    <row r="5" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3823,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" thickBot="1">
+    <row r="6" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" thickBot="1">
+    <row r="7" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" thickBot="1">
+    <row r="8" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4000,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" thickBot="1">
+    <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4059,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" thickBot="1">
+    <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" thickBot="1">
+    <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" thickBot="1">
+    <row r="12" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" thickBot="1">
+    <row r="13" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4295,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" thickBot="1">
+    <row r="14" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4354,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" thickBot="1">
+    <row r="15" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4413,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" thickBot="1">
+    <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" thickBot="1">
+    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27" thickBot="1">
+    <row r="18" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4590,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27" thickBot="1">
+    <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4649,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" thickBot="1">
+    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" thickBot="1">
+    <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4767,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" thickBot="1">
+    <row r="22" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" thickBot="1">
+    <row r="23" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4885,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4944,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27" thickBot="1">
+    <row r="25" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5003,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" thickBot="1">
+    <row r="26" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5062,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" thickBot="1">
+    <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5121,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" thickBot="1">
+    <row r="28" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5180,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" thickBot="1">
+    <row r="29" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5239,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" thickBot="1">
+    <row r="30" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5298,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" thickBot="1">
+    <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5357,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" thickBot="1">
+    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27" thickBot="1">
+    <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5475,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" thickBot="1">
+    <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5534,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" thickBot="1">
+    <row r="35" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5593,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" thickBot="1">
+    <row r="36" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5652,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" thickBot="1">
+    <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" thickBot="1">
+    <row r="38" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5770,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" thickBot="1">
+    <row r="39" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="27" thickBot="1">
+    <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5888,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="27" thickBot="1">
+    <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="27" thickBot="1">
+    <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6006,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="27" thickBot="1">
+    <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="27" thickBot="1">
+    <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27" thickBot="1">
+    <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6183,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27" thickBot="1">
+    <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6242,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" thickBot="1">
+    <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6301,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" thickBot="1">
+    <row r="48" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6360,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="27" thickBot="1">
+    <row r="49" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6419,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="27" thickBot="1">
+    <row r="50" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6478,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="27" thickBot="1">
+    <row r="51" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6537,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="27" thickBot="1">
+    <row r="52" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6596,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27" thickBot="1">
+    <row r="53" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27" thickBot="1">
+    <row r="54" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6714,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27" thickBot="1">
+    <row r="55" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6773,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="27" thickBot="1">
+    <row r="56" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6832,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="27" thickBot="1">
+    <row r="57" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="27" thickBot="1">
+    <row r="58" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" thickBot="1">
+    <row r="59" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7009,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="27" thickBot="1">
+    <row r="60" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7068,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" thickBot="1">
+    <row r="61" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7127,7 +7139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" thickBot="1">
+    <row r="62" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7186,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" thickBot="1">
+    <row r="63" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7245,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="27" thickBot="1">
+    <row r="64" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7304,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" thickBot="1">
+    <row r="65" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7363,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" thickBot="1">
+    <row r="66" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7422,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" thickBot="1">
+    <row r="67" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7481,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" thickBot="1">
+    <row r="68" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7540,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" thickBot="1">
+    <row r="69" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7599,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" thickBot="1">
+    <row r="70" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7658,7 +7670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" thickBot="1">
+    <row r="71" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7717,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="27" thickBot="1">
+    <row r="72" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7776,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="27" thickBot="1">
+    <row r="73" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7835,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="27" thickBot="1">
+    <row r="74" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7894,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="27" thickBot="1">
+    <row r="75" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7953,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" thickBot="1">
+    <row r="76" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8012,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" thickBot="1">
+    <row r="77" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8071,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="27" thickBot="1">
+    <row r="78" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8130,7 +8142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="27" thickBot="1">
+    <row r="79" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8189,7 +8201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="27" thickBot="1">
+    <row r="80" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8248,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="27" thickBot="1">
+    <row r="81" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8307,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" thickBot="1">
+    <row r="82" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8366,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" thickBot="1">
+    <row r="83" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8425,7 +8437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" thickBot="1">
+    <row r="84" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8484,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" thickBot="1">
+    <row r="85" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8543,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="27" thickBot="1">
+    <row r="86" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8602,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="27" thickBot="1">
+    <row r="87" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8661,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" thickBot="1">
+    <row r="88" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8720,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" thickBot="1">
+    <row r="89" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8779,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" thickBot="1">
+    <row r="90" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8838,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="27" thickBot="1">
+    <row r="91" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8897,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="27" thickBot="1">
+    <row r="92" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8956,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="27" thickBot="1">
+    <row r="93" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9015,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="27" thickBot="1">
+    <row r="94" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9074,7 +9086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="27" thickBot="1">
+    <row r="95" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9133,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" thickBot="1">
+    <row r="96" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9192,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" thickBot="1">
+    <row r="97" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9251,7 +9263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" thickBot="1">
+    <row r="98" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9310,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" thickBot="1">
+    <row r="99" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9369,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" thickBot="1">
+    <row r="100" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9428,7 +9440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" thickBot="1">
+    <row r="101" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9487,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" thickBot="1">
+    <row r="102" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9546,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" thickBot="1">
+    <row r="103" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9605,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" thickBot="1">
+    <row r="104" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9664,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="27" thickBot="1">
+    <row r="105" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9723,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="27" thickBot="1">
+    <row r="106" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9782,7 +9794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="27" thickBot="1">
+    <row r="107" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9841,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="27" thickBot="1">
+    <row r="108" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9900,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" thickBot="1">
+    <row r="109" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9959,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" thickBot="1">
+    <row r="110" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10018,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" thickBot="1">
+    <row r="111" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10077,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" thickBot="1">
+    <row r="112" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10136,7 +10148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" thickBot="1">
+    <row r="113" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10195,7 +10207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="27" thickBot="1">
+    <row r="114" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10254,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="27" thickBot="1">
+    <row r="115" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10313,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="27" thickBot="1">
+    <row r="116" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10372,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" thickBot="1">
+    <row r="117" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10431,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" thickBot="1">
+    <row r="118" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10490,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="26.25">
+    <row r="119" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10557,14 +10569,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
@@ -10572,7 +10584,7 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10598,7 +10610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10624,7 +10636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10650,7 +10662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10676,7 +10688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10702,7 +10714,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10728,7 +10740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10754,7 +10766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10787,12 +10799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10800,14 +10812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10815,14 +10827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10834,12 +10846,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10847,14 +10859,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -10863,7 +10875,7 @@
     <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -10898,7 +10910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10933,7 +10945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10968,7 +10980,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11003,7 +11015,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>

--- a/Assets/Resources/Data/TotalData.xlsx
+++ b/Assets/Resources/Data/TotalData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suro\Downloads\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -28,13 +23,17 @@
     <sheet name="WaterPlusEnhance" sheetId="14" r:id="rId14"/>
     <sheet name="AccuractRate" sheetId="15" r:id="rId15"/>
     <sheet name="CriticalEnhance" sheetId="16" r:id="rId16"/>
+    <sheet name="OneGradeEnhance" sheetId="17" r:id="rId17"/>
+    <sheet name="TwoGradeEnhance" sheetId="18" r:id="rId18"/>
+    <sheet name="ThreeGradeEnhance" sheetId="19" r:id="rId19"/>
+    <sheet name="FourGradeEnhance" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -493,14 +492,22 @@
   </si>
   <si>
     <t xml:space="preserve">비용 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">명예 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,20 +720,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -773,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,10 +828,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +862,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1016,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -1036,7 +1057,7 @@
     <col min="16" max="19" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1064,7 +1085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1092,7 +1113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1106,7 +1127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1141,16 +1162,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1170,7 +1191,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1190,7 +1211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1270,7 +1291,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1290,7 +1311,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1310,7 +1331,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1337,19 +1358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="26" t="s">
         <v>121</v>
       </c>
@@ -1357,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1366,7 +1387,7 @@
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1382,7 +1403,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1390,7 +1411,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1422,7 +1443,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1430,7 +1451,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1438,7 +1459,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1446,7 +1467,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1454,7 +1475,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1462,7 +1483,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1470,7 +1491,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1478,7 +1499,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1486,7 +1507,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1494,7 +1515,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1502,7 +1523,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1518,7 +1539,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1526,7 +1547,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1534,7 +1555,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1542,7 +1563,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1558,7 +1579,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1574,7 +1595,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1582,7 +1603,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1590,7 +1611,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1613,16 +1634,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>117</v>
       </c>
@@ -1633,7 +1654,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1644,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1655,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1666,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1677,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1699,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1710,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1721,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1743,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1754,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1765,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1787,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1798,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1809,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1831,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1853,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1864,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1875,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1886,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1897,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1908,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1919,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1930,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1941,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1952,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1970,16 +1991,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>117</v>
       </c>
@@ -1990,7 +2011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2001,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2023,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2034,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -2045,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2056,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -2067,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2078,7 +2099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -2089,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2100,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2111,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2122,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2133,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2144,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2155,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2166,7 +2187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2177,7 +2198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2188,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2199,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2210,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2221,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2232,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2243,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2254,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2265,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2276,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2287,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2298,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2309,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2327,16 +2348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1">
       <c r="A1" s="19" t="s">
         <v>117</v>
       </c>
@@ -2347,7 +2368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2358,7 +2379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2369,7 +2390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2380,7 +2401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2391,7 +2412,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2402,7 +2423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2413,7 +2434,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2424,7 +2445,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2435,7 +2456,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2446,7 +2467,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2457,7 +2478,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2468,7 +2489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2479,7 +2500,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2490,7 +2511,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2501,7 +2522,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2512,7 +2533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2523,7 +2544,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2534,7 +2555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2545,7 +2566,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2556,7 +2577,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -2567,7 +2588,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2578,7 +2599,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2611,7 +2632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2622,7 +2643,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2633,7 +2654,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2644,7 +2665,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -2655,7 +2676,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2684,16 +2705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="50.25" thickBot="1">
       <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
@@ -2704,7 +2725,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2715,7 +2736,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2726,7 +2747,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2737,7 +2758,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2748,7 +2769,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2759,7 +2780,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2770,7 +2791,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -2781,7 +2802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2792,7 +2813,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2803,7 +2824,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2814,7 +2835,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2825,7 +2846,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2836,7 +2857,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2847,7 +2868,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2858,7 +2879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2869,7 +2890,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2880,7 +2901,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2891,7 +2912,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2902,7 +2923,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -2913,7 +2934,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -2924,7 +2945,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -2935,7 +2956,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -2946,7 +2967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -2957,7 +2978,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -2990,7 +3011,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -3001,7 +3022,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -3012,7 +3033,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -3023,7 +3044,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -3042,16 +3063,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="50.25" thickBot="1">
       <c r="A1" s="28" t="s">
         <v>117</v>
       </c>
@@ -3062,7 +3083,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -3076,7 +3097,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -3087,7 +3108,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -3098,7 +3119,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -3109,7 +3130,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -3120,7 +3141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -3131,7 +3152,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -3142,7 +3163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -3153,7 +3174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -3164,7 +3185,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -3175,7 +3196,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -3186,7 +3207,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3197,7 +3218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -3208,7 +3229,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -3219,7 +3240,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -3230,7 +3251,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -3241,7 +3262,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -3252,7 +3273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -3263,7 +3284,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -3274,7 +3295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -3285,7 +3306,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -3296,7 +3317,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -3307,7 +3328,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="27">
         <v>23</v>
       </c>
@@ -3318,7 +3339,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -3329,7 +3350,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="27">
         <v>25</v>
       </c>
@@ -3340,7 +3361,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -3351,7 +3372,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="27">
         <v>27</v>
       </c>
@@ -3362,7 +3383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -3373,7 +3394,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="27">
         <v>29</v>
       </c>
@@ -3384,7 +3405,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -3394,6 +3415,820 @@
       <c r="C31" s="32">
         <v>0.1</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="34">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34">
+        <v>1200</v>
+      </c>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>1400</v>
+      </c>
+      <c r="D4" s="34"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="34">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>1600</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="34">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34">
+        <v>1</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34">
+        <v>1</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2200</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34">
+        <v>1</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2600</v>
+      </c>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="34">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2800</v>
+      </c>
+      <c r="D11" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="34">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34">
+        <v>1</v>
+      </c>
+      <c r="C13" s="34">
+        <v>3200</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34">
+        <v>1</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3400</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34">
+        <v>3800</v>
+      </c>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34">
+        <v>1</v>
+      </c>
+      <c r="C18" s="34">
+        <v>4200</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1</v>
+      </c>
+      <c r="C19" s="34">
+        <v>4400</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34">
+        <v>1</v>
+      </c>
+      <c r="C20" s="34">
+        <v>4600</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="34">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <v>4800</v>
+      </c>
+      <c r="D21" s="34">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1</v>
+      </c>
+      <c r="C2" s="35">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35">
+        <v>2400</v>
+      </c>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="35">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2800</v>
+      </c>
+      <c r="D4" s="35"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35">
+        <v>1</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3200</v>
+      </c>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="35">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35">
+        <v>3600</v>
+      </c>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="35">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35">
+        <v>4400</v>
+      </c>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <v>4800</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="35">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35">
+        <v>5200</v>
+      </c>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>5600</v>
+      </c>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35">
+        <v>6000</v>
+      </c>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="35">
+        <v>6400</v>
+      </c>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="35">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35">
+        <v>1</v>
+      </c>
+      <c r="C14" s="35">
+        <v>6800</v>
+      </c>
+      <c r="D14" s="35"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35">
+        <v>1</v>
+      </c>
+      <c r="C15" s="35">
+        <v>7200</v>
+      </c>
+      <c r="D15" s="35"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="35">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35">
+        <v>1</v>
+      </c>
+      <c r="C16" s="35">
+        <v>7600</v>
+      </c>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35">
+        <v>8000</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="35">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35">
+        <v>1</v>
+      </c>
+      <c r="C18" s="35">
+        <v>8400</v>
+      </c>
+      <c r="D18" s="35"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35">
+        <v>8800</v>
+      </c>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="35">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35">
+        <v>1</v>
+      </c>
+      <c r="C20" s="35">
+        <v>9200</v>
+      </c>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="35">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35">
+        <v>1</v>
+      </c>
+      <c r="C21" s="35">
+        <v>9600</v>
+      </c>
+      <c r="D21" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37">
+        <v>1</v>
+      </c>
+      <c r="C2" s="37">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="37">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="37">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <v>1</v>
+      </c>
+      <c r="C7" s="37">
+        <v>9000</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="37">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37">
+        <v>1</v>
+      </c>
+      <c r="C8" s="37">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="37">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37">
+        <v>1</v>
+      </c>
+      <c r="C9" s="37">
+        <v>11000</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="37">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37">
+        <v>1</v>
+      </c>
+      <c r="C10" s="37">
+        <v>12000</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="37">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37">
+        <v>13000</v>
+      </c>
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="37">
+        <v>11</v>
+      </c>
+      <c r="B12" s="37">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37">
+        <v>14000</v>
+      </c>
+      <c r="D12" s="37"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="37">
+        <v>12</v>
+      </c>
+      <c r="B13" s="37">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="37">
+        <v>13</v>
+      </c>
+      <c r="B14" s="37">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37">
+        <v>16000</v>
+      </c>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="37">
+        <v>14</v>
+      </c>
+      <c r="B15" s="37">
+        <v>1</v>
+      </c>
+      <c r="C15" s="37">
+        <v>17000</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="37">
+        <v>15</v>
+      </c>
+      <c r="B16" s="37">
+        <v>1</v>
+      </c>
+      <c r="C16" s="37">
+        <v>18000</v>
+      </c>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="37">
+        <v>16</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1</v>
+      </c>
+      <c r="C17" s="37">
+        <v>19000</v>
+      </c>
+      <c r="D17" s="37"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="37">
+        <v>17</v>
+      </c>
+      <c r="B18" s="37">
+        <v>1</v>
+      </c>
+      <c r="C18" s="37">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="37">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37">
+        <v>1</v>
+      </c>
+      <c r="C19" s="37">
+        <v>21000</v>
+      </c>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="37">
+        <v>19</v>
+      </c>
+      <c r="B20" s="37">
+        <v>1</v>
+      </c>
+      <c r="C20" s="37">
+        <v>22000</v>
+      </c>
+      <c r="D20" s="37"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="37">
+        <v>20</v>
+      </c>
+      <c r="B21" s="37">
+        <v>1</v>
+      </c>
+      <c r="C21" s="37">
+        <v>23000</v>
+      </c>
+      <c r="D21" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3402,14 +4237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -3417,7 +4252,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3440,7 +4275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3463,7 +4298,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3486,7 +4321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3516,15 +4351,285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>2</v>
+      </c>
+      <c r="C2" s="39">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39">
+        <v>2</v>
+      </c>
+      <c r="C3" s="39">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>2</v>
+      </c>
+      <c r="C4" s="39">
+        <v>8000</v>
+      </c>
+      <c r="D4" s="39"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>2</v>
+      </c>
+      <c r="C5" s="39">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="39"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39">
+        <v>12000</v>
+      </c>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39">
+        <v>2</v>
+      </c>
+      <c r="C7" s="39">
+        <v>14000</v>
+      </c>
+      <c r="D7" s="39"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>2</v>
+      </c>
+      <c r="C8" s="39">
+        <v>16000</v>
+      </c>
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>2</v>
+      </c>
+      <c r="C9" s="39">
+        <v>18000</v>
+      </c>
+      <c r="D9" s="39"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>2</v>
+      </c>
+      <c r="C10" s="39">
+        <v>20000</v>
+      </c>
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>2</v>
+      </c>
+      <c r="C11" s="39">
+        <v>22000</v>
+      </c>
+      <c r="D11" s="39"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>2</v>
+      </c>
+      <c r="C12" s="39">
+        <v>24000</v>
+      </c>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>2</v>
+      </c>
+      <c r="C13" s="39">
+        <v>26000</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="39">
+        <v>2</v>
+      </c>
+      <c r="C14" s="39">
+        <v>28000</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39">
+        <v>2</v>
+      </c>
+      <c r="C15" s="39">
+        <v>30000</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39">
+        <v>2</v>
+      </c>
+      <c r="C16" s="39">
+        <v>32000</v>
+      </c>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39">
+        <v>2</v>
+      </c>
+      <c r="C17" s="39">
+        <v>34000</v>
+      </c>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>2</v>
+      </c>
+      <c r="C18" s="39">
+        <v>36000</v>
+      </c>
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39">
+        <v>2</v>
+      </c>
+      <c r="C19" s="39">
+        <v>38000</v>
+      </c>
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39">
+        <v>2</v>
+      </c>
+      <c r="C20" s="39">
+        <v>40000</v>
+      </c>
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
+        <v>2</v>
+      </c>
+      <c r="C21" s="39">
+        <v>42000</v>
+      </c>
+      <c r="D21" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -3540,7 +4645,7 @@
     <col min="15" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="21" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -3599,7 +4704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="27" thickBot="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3658,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="27" thickBot="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3717,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="27" thickBot="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3776,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="27" thickBot="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3835,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="27" thickBot="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3894,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="27" thickBot="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3953,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="27" thickBot="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4012,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="27" thickBot="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4071,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="27" thickBot="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4130,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="27" thickBot="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4189,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="27" thickBot="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4248,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="27" thickBot="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4307,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="27" thickBot="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4366,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="27" thickBot="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4425,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="27" thickBot="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4484,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="27" thickBot="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4543,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="27" thickBot="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4602,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="27" thickBot="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4661,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="27" thickBot="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4720,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="27" thickBot="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4779,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="27" thickBot="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4838,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="27" thickBot="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4897,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="27" thickBot="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4956,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="27" thickBot="1">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5015,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="27" thickBot="1">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5074,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="27" thickBot="1">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5133,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="27" thickBot="1">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5192,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="27" thickBot="1">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5251,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="27" thickBot="1">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5310,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="27" thickBot="1">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5369,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="27" thickBot="1">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5428,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="27" thickBot="1">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5487,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="27" thickBot="1">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5546,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="27" thickBot="1">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5605,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="27" thickBot="1">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5664,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="27" thickBot="1">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5723,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="27" thickBot="1">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5782,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="27" thickBot="1">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5841,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="27" thickBot="1">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5900,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="27" thickBot="1">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5959,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="27" thickBot="1">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6018,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="27" thickBot="1">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6077,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="27" thickBot="1">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6136,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="27" thickBot="1">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6195,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="27" thickBot="1">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6254,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="27" thickBot="1">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6313,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="27" thickBot="1">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6372,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="27" thickBot="1">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6431,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="27" thickBot="1">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6490,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="27" thickBot="1">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6549,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="27" thickBot="1">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6608,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="27" thickBot="1">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6667,7 +7772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="27" thickBot="1">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6726,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="27" thickBot="1">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6785,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="27" thickBot="1">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6844,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="27" thickBot="1">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6903,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="27" thickBot="1">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6962,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="27" thickBot="1">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7021,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="27" thickBot="1">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7080,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="27" thickBot="1">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7139,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="27" thickBot="1">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7198,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="27" thickBot="1">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7257,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="27" thickBot="1">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7316,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="27" thickBot="1">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7375,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="27" thickBot="1">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7434,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="27" thickBot="1">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7493,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="27" thickBot="1">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7552,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="27" thickBot="1">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7611,7 +8716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="27" thickBot="1">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7670,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="27" thickBot="1">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7729,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="27" thickBot="1">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7788,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="27" thickBot="1">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7847,7 +8952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="27" thickBot="1">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7906,7 +9011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="27" thickBot="1">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7965,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="27" thickBot="1">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8024,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="27" thickBot="1">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8083,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="27" thickBot="1">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8142,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="27" thickBot="1">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8201,7 +9306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="27" thickBot="1">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8260,7 +9365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="27" thickBot="1">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8319,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="27" thickBot="1">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8378,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="27" thickBot="1">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8437,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="27" thickBot="1">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8496,7 +9601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="27" thickBot="1">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8555,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="27" thickBot="1">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8614,7 +9719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" ht="27" thickBot="1">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8673,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" ht="27" thickBot="1">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8732,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" ht="27" thickBot="1">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8791,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" ht="27" thickBot="1">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8850,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="27" thickBot="1">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8909,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="27" thickBot="1">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8968,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="27" thickBot="1">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9027,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="27" thickBot="1">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9086,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="27" thickBot="1">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9145,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="27" thickBot="1">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9204,7 +10309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="27" thickBot="1">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9263,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="27" thickBot="1">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9322,7 +10427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="27" thickBot="1">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9381,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="27" thickBot="1">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9440,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="27" thickBot="1">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9499,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="27" thickBot="1">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9558,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="27" thickBot="1">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9617,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="27" thickBot="1">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9676,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="27" thickBot="1">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9735,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" ht="27" thickBot="1">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9794,7 +10899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="27" thickBot="1">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9853,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="27" thickBot="1">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9912,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="27" thickBot="1">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9971,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="27" thickBot="1">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10030,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="27" thickBot="1">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10089,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="27" thickBot="1">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10148,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" ht="27" thickBot="1">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10207,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" ht="27" thickBot="1">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10266,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="27" thickBot="1">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10325,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" ht="27" thickBot="1">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10384,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" ht="27" thickBot="1">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10443,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" ht="27" thickBot="1">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10502,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="26.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10569,14 +11674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
@@ -10584,7 +11689,7 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +11715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10636,7 +11741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10662,7 +11767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10688,7 +11793,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10714,7 +11819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10740,7 +11845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10766,7 +11871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10799,12 +11904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10812,14 +11917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10827,14 +11932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -10846,12 +11951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10859,14 +11964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -10875,7 +11980,7 @@
     <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -10910,7 +12015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -10945,7 +12050,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10980,7 +12085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11015,7 +12120,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>

--- a/Assets/Resources/Data/TotalData.xlsx
+++ b/Assets/Resources/Data/TotalData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suro\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="12555" firstSheet="17" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13785" windowHeight="10725" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -27,13 +32,17 @@
     <sheet name="TwoGradeEnhance" sheetId="18" r:id="rId18"/>
     <sheet name="ThreeGradeEnhance" sheetId="19" r:id="rId19"/>
     <sheet name="FourGradeEnhance" sheetId="20" r:id="rId20"/>
+    <sheet name="CgradeArbait" sheetId="21" r:id="rId21"/>
+    <sheet name="BgradeArbait" sheetId="22" r:id="rId22"/>
+    <sheet name="AgradeArbait" sheetId="23" r:id="rId23"/>
+    <sheet name="SgradeArbait" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="146">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,14 +509,98 @@
   </si>
   <si>
     <t xml:space="preserve">명예 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수능력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용(골드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용(명예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수능력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용(명예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수능력(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용(골드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용(명예)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,6 +843,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -796,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,9 +929,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,6 +964,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1037,14 +1140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
@@ -1057,7 +1160,7 @@
     <col min="16" max="19" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1085,7 +1188,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1099,7 +1202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1113,7 +1216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1127,7 +1230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1141,7 +1244,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1162,16 +1265,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1191,7 +1294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1211,7 +1314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1231,7 +1334,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1251,7 +1354,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1271,7 +1374,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1291,7 +1394,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1311,7 +1414,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1331,7 +1434,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1358,19 +1461,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>121</v>
       </c>
@@ -1378,7 +1481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1387,7 +1490,7 @@
       </c>
       <c r="C2" s="32"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1395,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1403,7 +1506,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1411,7 +1514,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1419,7 +1522,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1427,7 +1530,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1435,7 +1538,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1443,7 +1546,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1451,7 +1554,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1459,7 +1562,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1467,7 +1570,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1475,7 +1578,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -1483,7 +1586,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -1491,7 +1594,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -1499,7 +1602,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -1507,7 +1610,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1515,7 +1618,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1523,7 +1626,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1531,7 +1634,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1539,7 +1642,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -1547,7 +1650,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -1555,7 +1658,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -1563,7 +1666,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>23</v>
       </c>
@@ -1571,7 +1674,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>24</v>
       </c>
@@ -1579,7 +1682,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>25</v>
       </c>
@@ -1587,7 +1690,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>26</v>
       </c>
@@ -1595,7 +1698,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>27</v>
       </c>
@@ -1603,7 +1706,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>28</v>
       </c>
@@ -1611,7 +1714,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>29</v>
       </c>
@@ -1619,7 +1722,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>30</v>
       </c>
@@ -1634,16 +1737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>117</v>
       </c>
@@ -1654,7 +1757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1665,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1676,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1687,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1698,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1709,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1720,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1731,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1742,7 +1845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1753,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1764,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1775,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1786,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1797,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1808,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1819,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1830,7 +1933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1841,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1852,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1863,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1874,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1885,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1896,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1907,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1918,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1929,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1940,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1951,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1962,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1973,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1991,16 +2094,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>117</v>
       </c>
@@ -2011,7 +2114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -2022,7 +2125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -2033,7 +2136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -2044,7 +2147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -2055,7 +2158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -2066,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -2077,7 +2180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -2088,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2099,7 +2202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -2110,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -2121,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -2132,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2143,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2154,7 +2257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2165,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2176,7 +2279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -2187,7 +2290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -2198,7 +2301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -2209,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -2220,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -2231,7 +2334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -2242,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -2253,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -2264,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -2275,7 +2378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -2286,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -2297,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -2308,7 +2411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -2319,7 +2422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -2330,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -2348,16 +2451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" thickBot="1">
+    <row r="1" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>117</v>
       </c>
@@ -2368,7 +2471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2379,7 +2482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2390,7 +2493,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2401,7 +2504,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2412,7 +2515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2423,7 +2526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2434,7 +2537,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2445,7 +2548,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2456,7 +2559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2467,7 +2570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2478,7 +2581,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2489,7 +2592,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -2500,7 +2603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -2511,7 +2614,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -2522,7 +2625,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -2533,7 +2636,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -2544,7 +2647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -2555,7 +2658,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2566,7 +2669,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2577,7 +2680,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -2588,7 +2691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2599,7 +2702,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2610,7 +2713,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2621,7 +2724,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -2632,7 +2735,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2643,7 +2746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2654,7 +2757,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2665,7 +2768,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -2676,7 +2779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2687,7 +2790,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2705,16 +2808,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.25" thickBot="1">
+    <row r="1" spans="1:3" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>117</v>
       </c>
@@ -2725,7 +2828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2736,7 +2839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2747,7 +2850,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -2758,7 +2861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2769,7 +2872,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2780,7 +2883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2791,7 +2894,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -2802,7 +2905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2813,7 +2916,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2824,7 +2927,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2835,7 +2938,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2846,7 +2949,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2857,7 +2960,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2868,7 +2971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2879,7 +2982,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2890,7 +2993,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2901,7 +3004,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2912,7 +3015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2923,7 +3026,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -2934,7 +3037,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -2945,7 +3048,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -2956,7 +3059,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -2967,7 +3070,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -2978,7 +3081,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -2989,7 +3092,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -3000,7 +3103,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -3011,7 +3114,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -3022,7 +3125,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -3033,7 +3136,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -3044,7 +3147,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -3063,16 +3166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="50.25" thickBot="1">
+    <row r="1" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
         <v>117</v>
       </c>
@@ -3083,7 +3186,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -3097,7 +3200,7 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -3108,7 +3211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -3119,7 +3222,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -3130,7 +3233,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -3141,7 +3244,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -3152,7 +3255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -3163,7 +3266,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -3174,7 +3277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -3185,7 +3288,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -3196,7 +3299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -3207,7 +3310,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3218,7 +3321,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -3229,7 +3332,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -3240,7 +3343,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -3251,7 +3354,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -3262,7 +3365,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -3273,7 +3376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -3284,7 +3387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -3295,7 +3398,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -3306,7 +3409,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -3317,7 +3420,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -3328,7 +3431,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>23</v>
       </c>
@@ -3339,7 +3442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -3350,7 +3453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>25</v>
       </c>
@@ -3361,7 +3464,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -3372,7 +3475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>27</v>
       </c>
@@ -3383,7 +3486,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -3394,7 +3497,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>29</v>
       </c>
@@ -3405,7 +3508,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -3423,16 +3526,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
@@ -3446,7 +3549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="34">
         <v>1</v>
       </c>
@@ -3458,7 +3561,7 @@
       </c>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
         <v>2</v>
       </c>
@@ -3470,7 +3573,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
         <v>3</v>
       </c>
@@ -3482,7 +3585,7 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="34">
         <v>4</v>
       </c>
@@ -3494,7 +3597,7 @@
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
         <v>5</v>
       </c>
@@ -3506,7 +3609,7 @@
       </c>
       <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
         <v>6</v>
       </c>
@@ -3518,7 +3621,7 @@
       </c>
       <c r="D7" s="34"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
         <v>7</v>
       </c>
@@ -3530,7 +3633,7 @@
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="34">
         <v>8</v>
       </c>
@@ -3542,7 +3645,7 @@
       </c>
       <c r="D9" s="34"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="34">
         <v>9</v>
       </c>
@@ -3554,7 +3657,7 @@
       </c>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="34">
         <v>10</v>
       </c>
@@ -3568,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="34">
         <v>11</v>
       </c>
@@ -3580,7 +3683,7 @@
       </c>
       <c r="D12" s="34"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="34">
         <v>12</v>
       </c>
@@ -3592,7 +3695,7 @@
       </c>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="34">
         <v>13</v>
       </c>
@@ -3604,7 +3707,7 @@
       </c>
       <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="34">
         <v>14</v>
       </c>
@@ -3616,7 +3719,7 @@
       </c>
       <c r="D15" s="34"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="34">
         <v>15</v>
       </c>
@@ -3628,7 +3731,7 @@
       </c>
       <c r="D16" s="34"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="34">
         <v>16</v>
       </c>
@@ -3640,7 +3743,7 @@
       </c>
       <c r="D17" s="34"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>17</v>
       </c>
@@ -3652,7 +3755,7 @@
       </c>
       <c r="D18" s="34"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>18</v>
       </c>
@@ -3664,7 +3767,7 @@
       </c>
       <c r="D19" s="34"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>19</v>
       </c>
@@ -3676,7 +3779,7 @@
       </c>
       <c r="D20" s="34"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>20</v>
       </c>
@@ -3697,16 +3800,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3823,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3732,7 +3835,7 @@
       </c>
       <c r="D2" s="35"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -3744,7 +3847,7 @@
       </c>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
         <v>3</v>
       </c>
@@ -3756,7 +3859,7 @@
       </c>
       <c r="D4" s="35"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -3768,7 +3871,7 @@
       </c>
       <c r="D5" s="35"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
         <v>5</v>
       </c>
@@ -3780,7 +3883,7 @@
       </c>
       <c r="D6" s="35"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -3792,7 +3895,7 @@
       </c>
       <c r="D7" s="35"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
         <v>7</v>
       </c>
@@ -3804,7 +3907,7 @@
       </c>
       <c r="D8" s="35"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -3816,7 +3919,7 @@
       </c>
       <c r="D9" s="35"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>9</v>
       </c>
@@ -3828,7 +3931,7 @@
       </c>
       <c r="D10" s="35"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -3840,7 +3943,7 @@
       </c>
       <c r="D11" s="35"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
         <v>11</v>
       </c>
@@ -3852,7 +3955,7 @@
       </c>
       <c r="D12" s="35"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -3864,7 +3967,7 @@
       </c>
       <c r="D13" s="35"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>13</v>
       </c>
@@ -3876,7 +3979,7 @@
       </c>
       <c r="D14" s="35"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -3888,7 +3991,7 @@
       </c>
       <c r="D15" s="35"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>15</v>
       </c>
@@ -3900,7 +4003,7 @@
       </c>
       <c r="D16" s="35"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -3912,7 +4015,7 @@
       </c>
       <c r="D17" s="35"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="35">
         <v>17</v>
       </c>
@@ -3924,7 +4027,7 @@
       </c>
       <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -3936,7 +4039,7 @@
       </c>
       <c r="D19" s="35"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -3948,7 +4051,7 @@
       </c>
       <c r="D20" s="35"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -3967,16 +4070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -3990,7 +4093,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>1</v>
       </c>
@@ -4002,7 +4105,7 @@
       </c>
       <c r="D2" s="37"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>2</v>
       </c>
@@ -4014,7 +4117,7 @@
       </c>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>3</v>
       </c>
@@ -4026,7 +4129,7 @@
       </c>
       <c r="D4" s="37"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>4</v>
       </c>
@@ -4038,7 +4141,7 @@
       </c>
       <c r="D5" s="37"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>5</v>
       </c>
@@ -4050,7 +4153,7 @@
       </c>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>6</v>
       </c>
@@ -4062,7 +4165,7 @@
       </c>
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>7</v>
       </c>
@@ -4074,7 +4177,7 @@
       </c>
       <c r="D8" s="37"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>8</v>
       </c>
@@ -4086,7 +4189,7 @@
       </c>
       <c r="D9" s="37"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="37">
         <v>9</v>
       </c>
@@ -4098,7 +4201,7 @@
       </c>
       <c r="D10" s="37"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>10</v>
       </c>
@@ -4110,7 +4213,7 @@
       </c>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>11</v>
       </c>
@@ -4122,7 +4225,7 @@
       </c>
       <c r="D12" s="37"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>12</v>
       </c>
@@ -4134,7 +4237,7 @@
       </c>
       <c r="D13" s="37"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>13</v>
       </c>
@@ -4146,7 +4249,7 @@
       </c>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>14</v>
       </c>
@@ -4158,7 +4261,7 @@
       </c>
       <c r="D15" s="37"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>15</v>
       </c>
@@ -4170,7 +4273,7 @@
       </c>
       <c r="D16" s="37"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>16</v>
       </c>
@@ -4182,7 +4285,7 @@
       </c>
       <c r="D17" s="37"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>17</v>
       </c>
@@ -4194,7 +4297,7 @@
       </c>
       <c r="D18" s="37"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>18</v>
       </c>
@@ -4206,7 +4309,7 @@
       </c>
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>19</v>
       </c>
@@ -4218,7 +4321,7 @@
       </c>
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>20</v>
       </c>
@@ -4237,14 +4340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -4252,7 +4355,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4275,7 +4378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4298,7 +4401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4321,7 +4424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4352,16 +4455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>4</v>
       </c>
@@ -4375,7 +4478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -4387,7 +4490,7 @@
       </c>
       <c r="D2" s="39"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="39">
         <v>2</v>
       </c>
@@ -4399,7 +4502,7 @@
       </c>
       <c r="D3" s="39"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -4411,7 +4514,7 @@
       </c>
       <c r="D4" s="39"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="39">
         <v>4</v>
       </c>
@@ -4423,7 +4526,7 @@
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -4435,7 +4538,7 @@
       </c>
       <c r="D6" s="39"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="39">
         <v>6</v>
       </c>
@@ -4447,7 +4550,7 @@
       </c>
       <c r="D7" s="39"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -4459,7 +4562,7 @@
       </c>
       <c r="D8" s="39"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="39">
         <v>8</v>
       </c>
@@ -4471,7 +4574,7 @@
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>9</v>
       </c>
@@ -4483,7 +4586,7 @@
       </c>
       <c r="D10" s="39"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>10</v>
       </c>
@@ -4495,7 +4598,7 @@
       </c>
       <c r="D11" s="39"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>11</v>
       </c>
@@ -4507,7 +4610,7 @@
       </c>
       <c r="D12" s="39"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>12</v>
       </c>
@@ -4519,7 +4622,7 @@
       </c>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>13</v>
       </c>
@@ -4531,7 +4634,7 @@
       </c>
       <c r="D14" s="39"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>14</v>
       </c>
@@ -4543,7 +4646,7 @@
       </c>
       <c r="D15" s="39"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>15</v>
       </c>
@@ -4555,7 +4658,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <v>16</v>
       </c>
@@ -4567,7 +4670,7 @@
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>17</v>
       </c>
@@ -4579,7 +4682,7 @@
       </c>
       <c r="D18" s="39"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>18</v>
       </c>
@@ -4591,7 +4694,7 @@
       </c>
       <c r="D19" s="39"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>19</v>
       </c>
@@ -4603,7 +4706,7 @@
       </c>
       <c r="D20" s="39"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>20</v>
       </c>
@@ -4614,6 +4717,2000 @@
         <v>42000</v>
       </c>
       <c r="D21" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>1200</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>1400</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1600</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1800</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>2000</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>2200</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>2400</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39">
+        <v>2800</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>3200</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>3600</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>3800</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>4200</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>4400</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>4600</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>10</v>
+      </c>
+      <c r="F21" s="39">
+        <v>4800</v>
+      </c>
+      <c r="G21" s="39">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>2400</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>2800</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>3200</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>3600</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>4400</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>4800</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>5200</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39">
+        <v>5600</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>6000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>6400</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>6800</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>7200</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>7600</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>8000</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>8400</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>8800</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>9200</v>
+      </c>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>10</v>
+      </c>
+      <c r="F21" s="39">
+        <v>9600</v>
+      </c>
+      <c r="G21" s="39">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>7000</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>8000</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>9000</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>11000</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>12000</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39">
+        <v>13000</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>14000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>16000</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>17000</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>18000</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>19000</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>21000</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>22000</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>10</v>
+      </c>
+      <c r="F21" s="39">
+        <v>23000</v>
+      </c>
+      <c r="G21" s="39">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>1</v>
+      </c>
+      <c r="C2" s="39">
+        <v>1</v>
+      </c>
+      <c r="D2" s="39">
+        <v>1</v>
+      </c>
+      <c r="E2" s="39">
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="39">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
+        <v>1</v>
+      </c>
+      <c r="D3" s="39">
+        <v>1</v>
+      </c>
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>8000</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1</v>
+      </c>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>12000</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39">
+        <v>1</v>
+      </c>
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>14000</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1</v>
+      </c>
+      <c r="C8" s="39">
+        <v>1</v>
+      </c>
+      <c r="D8" s="39">
+        <v>1</v>
+      </c>
+      <c r="E8" s="39">
+        <v>0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>16000</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39">
+        <v>1</v>
+      </c>
+      <c r="C9" s="39">
+        <v>1</v>
+      </c>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>18000</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39">
+        <v>1</v>
+      </c>
+      <c r="C10" s="39">
+        <v>1</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>20000</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39">
+        <v>1</v>
+      </c>
+      <c r="C11" s="39">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39">
+        <v>10</v>
+      </c>
+      <c r="F11" s="39">
+        <v>22000</v>
+      </c>
+      <c r="G11" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="39">
+        <v>1</v>
+      </c>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>24000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>26000</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39">
+        <v>1</v>
+      </c>
+      <c r="D14" s="39">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39">
+        <v>0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>28000</v>
+      </c>
+      <c r="G14" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="39">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39">
+        <v>1</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39">
+        <v>0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>30000</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39">
+        <v>1</v>
+      </c>
+      <c r="D16" s="39">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39">
+        <v>0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>32000</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39">
+        <v>1</v>
+      </c>
+      <c r="D17" s="39">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>34000</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1</v>
+      </c>
+      <c r="C18" s="39">
+        <v>1</v>
+      </c>
+      <c r="D18" s="39">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>36000</v>
+      </c>
+      <c r="G18" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1</v>
+      </c>
+      <c r="C19" s="39">
+        <v>1</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="39">
+        <v>0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>38000</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39">
+        <v>1</v>
+      </c>
+      <c r="C20" s="39">
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>40000</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1</v>
+      </c>
+      <c r="C21" s="39">
+        <v>1</v>
+      </c>
+      <c r="D21" s="39">
+        <v>1</v>
+      </c>
+      <c r="E21" s="39">
+        <v>10</v>
+      </c>
+      <c r="F21" s="39">
+        <v>42000</v>
+      </c>
+      <c r="G21" s="39">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4622,14 +6719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
@@ -4645,7 +6742,7 @@
     <col min="15" max="15" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" thickBot="1">
+    <row r="1" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4704,7 +6801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27" thickBot="1">
+    <row r="2" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4763,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="27" thickBot="1">
+    <row r="3" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4822,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="27" thickBot="1">
+    <row r="4" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4881,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" thickBot="1">
+    <row r="5" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4940,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" thickBot="1">
+    <row r="6" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4999,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" thickBot="1">
+    <row r="7" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5058,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" thickBot="1">
+    <row r="8" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5117,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" thickBot="1">
+    <row r="9" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5176,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" thickBot="1">
+    <row r="10" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5235,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" thickBot="1">
+    <row r="11" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5294,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" thickBot="1">
+    <row r="12" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5353,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" thickBot="1">
+    <row r="13" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5412,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" thickBot="1">
+    <row r="14" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5471,7 +7568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="27" thickBot="1">
+    <row r="15" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5530,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="27" thickBot="1">
+    <row r="16" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5589,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="27" thickBot="1">
+    <row r="17" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5648,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="27" thickBot="1">
+    <row r="18" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5707,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27" thickBot="1">
+    <row r="19" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5766,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" thickBot="1">
+    <row r="20" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5825,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" thickBot="1">
+    <row r="21" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5884,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" thickBot="1">
+    <row r="22" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5943,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" thickBot="1">
+    <row r="23" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6002,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" thickBot="1">
+    <row r="24" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6061,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="27" thickBot="1">
+    <row r="25" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6120,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="27" thickBot="1">
+    <row r="26" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6179,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="27" thickBot="1">
+    <row r="27" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6238,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="27" thickBot="1">
+    <row r="28" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6297,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="27" thickBot="1">
+    <row r="29" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6356,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="27" thickBot="1">
+    <row r="30" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6415,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="27" thickBot="1">
+    <row r="31" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6474,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" thickBot="1">
+    <row r="32" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6533,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27" thickBot="1">
+    <row r="33" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6592,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="27" thickBot="1">
+    <row r="34" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6651,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="27" thickBot="1">
+    <row r="35" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6710,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="27" thickBot="1">
+    <row r="36" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6769,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="27" thickBot="1">
+    <row r="37" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6828,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="27" thickBot="1">
+    <row r="38" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6887,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="27" thickBot="1">
+    <row r="39" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6946,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="27" thickBot="1">
+    <row r="40" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7005,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="27" thickBot="1">
+    <row r="41" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7064,7 +9161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="27" thickBot="1">
+    <row r="42" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7123,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="27" thickBot="1">
+    <row r="43" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7182,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="27" thickBot="1">
+    <row r="44" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7241,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27" thickBot="1">
+    <row r="45" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7300,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27" thickBot="1">
+    <row r="46" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7359,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="27" thickBot="1">
+    <row r="47" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7418,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="27" thickBot="1">
+    <row r="48" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7477,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="27" thickBot="1">
+    <row r="49" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7536,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="27" thickBot="1">
+    <row r="50" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7595,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="27" thickBot="1">
+    <row r="51" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7654,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="27" thickBot="1">
+    <row r="52" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7713,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="27" thickBot="1">
+    <row r="53" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7772,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="27" thickBot="1">
+    <row r="54" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7831,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="27" thickBot="1">
+    <row r="55" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7890,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="27" thickBot="1">
+    <row r="56" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7949,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="27" thickBot="1">
+    <row r="57" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8008,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="27" thickBot="1">
+    <row r="58" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8067,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="27" thickBot="1">
+    <row r="59" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8126,7 +10223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="27" thickBot="1">
+    <row r="60" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8185,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="27" thickBot="1">
+    <row r="61" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8244,7 +10341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="27" thickBot="1">
+    <row r="62" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8303,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="27" thickBot="1">
+    <row r="63" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8362,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="27" thickBot="1">
+    <row r="64" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8421,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="27" thickBot="1">
+    <row r="65" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8480,7 +10577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="27" thickBot="1">
+    <row r="66" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8539,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="27" thickBot="1">
+    <row r="67" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8598,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="27" thickBot="1">
+    <row r="68" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8657,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="27" thickBot="1">
+    <row r="69" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8716,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="27" thickBot="1">
+    <row r="70" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8775,7 +10872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" thickBot="1">
+    <row r="71" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8834,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="27" thickBot="1">
+    <row r="72" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8893,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="27" thickBot="1">
+    <row r="73" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8952,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="27" thickBot="1">
+    <row r="74" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9011,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="27" thickBot="1">
+    <row r="75" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9070,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="27" thickBot="1">
+    <row r="76" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9129,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27" thickBot="1">
+    <row r="77" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9188,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="27" thickBot="1">
+    <row r="78" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9247,7 +11344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="27" thickBot="1">
+    <row r="79" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9306,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="27" thickBot="1">
+    <row r="80" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9365,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="27" thickBot="1">
+    <row r="81" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9424,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="27" thickBot="1">
+    <row r="82" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9483,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="27" thickBot="1">
+    <row r="83" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9542,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="27" thickBot="1">
+    <row r="84" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9601,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="27" thickBot="1">
+    <row r="85" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9660,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="27" thickBot="1">
+    <row r="86" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9719,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="27" thickBot="1">
+    <row r="87" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9778,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="27" thickBot="1">
+    <row r="88" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9837,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="27" thickBot="1">
+    <row r="89" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9896,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="27" thickBot="1">
+    <row r="90" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9955,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="27" thickBot="1">
+    <row r="91" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10014,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="27" thickBot="1">
+    <row r="92" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10073,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="27" thickBot="1">
+    <row r="93" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10132,7 +12229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="27" thickBot="1">
+    <row r="94" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10191,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="27" thickBot="1">
+    <row r="95" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10250,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" thickBot="1">
+    <row r="96" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10309,7 +12406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="27" thickBot="1">
+    <row r="97" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10368,7 +12465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" thickBot="1">
+    <row r="98" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10427,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="27" thickBot="1">
+    <row r="99" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10486,7 +12583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="27" thickBot="1">
+    <row r="100" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10545,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="27" thickBot="1">
+    <row r="101" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10604,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="27" thickBot="1">
+    <row r="102" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10663,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="27" thickBot="1">
+    <row r="103" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10722,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="27" thickBot="1">
+    <row r="104" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10781,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="27" thickBot="1">
+    <row r="105" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10840,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="27" thickBot="1">
+    <row r="106" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10899,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="27" thickBot="1">
+    <row r="107" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10958,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="27" thickBot="1">
+    <row r="108" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11017,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" thickBot="1">
+    <row r="109" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11076,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" thickBot="1">
+    <row r="110" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11135,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" thickBot="1">
+    <row r="111" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11194,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" thickBot="1">
+    <row r="112" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -11253,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" thickBot="1">
+    <row r="113" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -11312,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="27" thickBot="1">
+    <row r="114" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -11371,7 +13468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="27" thickBot="1">
+    <row r="115" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -11430,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="27" thickBot="1">
+    <row r="116" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -11489,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" thickBot="1">
+    <row r="117" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -11548,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" thickBot="1">
+    <row r="118" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -11607,7 +13704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="26.25">
+    <row r="119" spans="1:19" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -11674,14 +13771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
@@ -11689,7 +13786,7 @@
     <col min="6" max="6" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11715,7 +13812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11741,7 +13838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11767,7 +13864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11793,7 +13890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11819,7 +13916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11845,7 +13942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11871,7 +13968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11904,12 +14001,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11917,14 +14014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11932,14 +14029,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -11951,12 +14048,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11964,14 +14061,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -11980,7 +14077,7 @@
     <col min="11" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -12015,7 +14112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12050,7 +14147,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12085,7 +14182,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12120,7 +14217,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
